--- a/data/pricelists/regard_pricelist.xlsx
+++ b/data/pricelists/regard_pricelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5E2A1-284C-4ACE-B431-06783ED78A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D875DA-E332-4956-BA66-43BEB10B97FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6050" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="14">
   <si>
     <t>ComponentID</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Regard</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>17600</v>
+        <v>36456</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -619,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5912</v>
+        <v>62451</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -639,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>8410</v>
+        <v>13142</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -659,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>15320</v>
+        <v>13432</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -679,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>11751</v>
+        <v>13740</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -699,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>9930</v>
+        <v>11432</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -718,6 +721,9 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>21699</v>
+      </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -735,6 +741,9 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
+      <c r="C15">
+        <v>23499</v>
+      </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
@@ -742,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -753,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>11480</v>
+        <v>13305</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -762,6 +771,2166 @@
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>4158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>6036</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>9391</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>16029</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>31305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>13089</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>8458</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>7935</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>7831</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>8430</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>8022</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>11773</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>10912</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>26597</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>5518</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>5697</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>4455</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>4811</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>7163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>5044</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>7895</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>25489</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>22205</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>17984</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>5903</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>16480</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>21498</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>16719</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>10221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>13789</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>5053</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>9726</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>5230</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>10549</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>7764</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>7657</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>4119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>26843</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>20575</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>69291</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>30769</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>123857</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>98494</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>34382</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>19297</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>34725</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>103761</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>65865</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>47553</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>44401</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>84056</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>99706</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>36002</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>34683</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>32763</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>19674</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>17010</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>15425</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>22393</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>24618</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>23145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>29308</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>28926</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>11810</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>17168</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>24506</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>36305</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>55863</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>11974</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>13914</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>2938</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>5518</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>4755</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>15138</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>5054</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>20513</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>7629</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>11614</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>4927</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>6380</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>3142</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>2866</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>2470</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>8844</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>19346</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>4825</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>8355</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>8373</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>10827</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>6680</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>16477</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <v>3560</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>2618</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>6090</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>7428</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>10197</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>4999</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>8410</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>1671</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>2053</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>39772</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>23947</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>22849</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>7935</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>9998</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>5600</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123">
+        <v>1047</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>2282</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -771,6 +2940,8 @@
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F5:F16" r:id="rId4" display="https://www.dns-shop.ru/product/ef42e95e5af71b80/videokarta-palit-geforce-rtx-3060-dual-lhr-ne63060019k9-190ad/" xr:uid="{4C883DB2-98BA-4233-8225-1F96E0048F59}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{9C58AB09-06AA-478B-BB9C-41EDD7B9B3B6}"/>
+    <hyperlink ref="F18:F124" r:id="rId6" display="https://www.dns-shop.ru/product/ef42e95e5af71b80/videokarta-palit-geforce-rtx-3060-dual-lhr-ne63060019k9-190ad/" xr:uid="{3D4F9D19-35D8-4F1D-B298-D78E02867575}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
